--- a/TeduShop.Web/Reports/TemplateForReport/ProductReport.xlsx
+++ b/TeduShop.Web/Reports/TemplateForReport/ProductReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Id</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>La Vân</t>
+  </si>
+  <si>
+    <t>Không Xác Định</t>
   </si>
 </sst>
 </file>
@@ -67,7 +70,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0;[Red]#,##0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,22 +95,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <i/>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -145,12 +141,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -294,38 +290,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -339,55 +309,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -397,6 +318,49 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -440,9 +404,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ProductReportId!$E$3:$E$8</c:f>
+              <c:f>ProductReportId!$E$3:$E$9</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Sa huỳnh</c:v>
                 </c:pt>
@@ -460,16 +424,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>La Vân</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Không Xác Định</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ProductReportId!$F$3:$F$8</c:f>
+              <c:f>ProductReportId!$F$3:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;[Red]#,##0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -486,6 +453,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -502,11 +472,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="100"/>
-        <c:axId val="194097152"/>
-        <c:axId val="162566656"/>
+        <c:axId val="171565056"/>
+        <c:axId val="164598272"/>
       </c:barChart>
       <c:valAx>
-        <c:axId val="162566656"/>
+        <c:axId val="164598272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -517,12 +487,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194097152"/>
+        <c:crossAx val="171565056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="194097152"/>
+        <c:axId val="171565056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -531,7 +501,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162566656"/>
+        <c:crossAx val="164598272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -876,7 +846,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,112 +861,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="24" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="24" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="24" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="26" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="24" t="s">
+      <c r="A7" s="24"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="26" t="s">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="7" t="s">
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
@@ -1020,11 +994,10 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="A3:D9"/>
-    <mergeCell ref="E9:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.57291666666666663" top="0.79166666666666663" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
